--- a/Listas - Comparacao.xlsx
+++ b/Listas - Comparacao.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Danilo\OneDrive - ArcelorMittal\Bibliografia\Mestrado UDESC\Projeto e Analise de Algoritmo\01 Atividades\21.05.14 Comparativo de Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB06F43-4349-4E7B-BEE1-7ECEA82B7267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,57 +24,57 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Senac</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Marco:
-</t>
+          <t>Marco:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>A função de inserção no fim da lista utiliza a função InserirPos, passando a última posição como parâmetro. Com isso, a inserção precisa percorrer toda a lista, até chegar no fim. 
+          <t xml:space="preserve">
+A função de inserção no fim da lista utiliza a função InserirPos, passando a última posição como parâmetro. Com isso, a inserção precisa percorrer toda a lista, até chegar no fim. 
 Por ser duplamente encadeada, a lista poderia utilizar o ponteiro para a última posição, fazendo a inserção com apenas um salto.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Marco:
-</t>
+          <t>Marco:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>A função removerPos chama duas vezes a função buscaNo, para localizar o nó anterior e posterior ao nó a ser removido. Com isso o número de saltos para remoção dobra.</t>
+          <t xml:space="preserve">
+A função removerPos chama duas vezes a função buscaNo, para localizar o nó anterior e posterior ao nó a ser removido. Com isso o número de saltos para remoção dobra.</t>
         </r>
       </text>
     </comment>
@@ -140,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -158,8 +157,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,33 +533,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.8984375" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" customWidth="1"/>
-    <col min="7" max="7" width="5.8984375" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -568,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -581,7 +588,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -594,7 +601,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -623,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -633,14 +640,14 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>10000</v>
+      <c r="E9" s="7">
+        <v>50005000</v>
       </c>
       <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
-        <v>10000</v>
+      <c r="G9" s="7">
+        <v>49995001</v>
       </c>
       <c r="H9" s="3">
         <v>99970003</v>
@@ -652,7 +659,7 @@
         <v>50005000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -662,14 +669,14 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>3000</v>
+      <c r="E10" s="7">
+        <v>4501500</v>
       </c>
       <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
-        <v>5999</v>
+      <c r="G10" s="7">
+        <v>8994002</v>
       </c>
       <c r="H10" s="3">
         <v>4501500</v>
@@ -681,10 +688,10 @@
         <v>4501500</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
     </row>
   </sheetData>
